--- a/Docs/Orcamento.xlsx
+++ b/Docs/Orcamento.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\logonrmlocal\Downloads\ExercicioGIT\3SIPF-GovGIT-2024\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6B1519B-9B39-46C2-93DC-3A3118764715}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{879EF4B8-0BE2-4050-AED9-6D36C9963D24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t xml:space="preserve">Orçamento do projeto </t>
   </si>
@@ -43,6 +43,9 @@
   </si>
   <si>
     <t>Alimentação</t>
+  </si>
+  <si>
+    <t>bugfix cavalo</t>
   </si>
 </sst>
 </file>
@@ -91,10 +94,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -376,10 +379,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -389,10 +392,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
+      <c r="B1" s="2"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -406,7 +409,7 @@
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>120000</v>
       </c>
     </row>
@@ -414,7 +417,7 @@
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>35300</v>
       </c>
     </row>
@@ -422,12 +425,17 @@
       <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="1">
         <v>1570</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
+      <c r="B8" s="1"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
